--- a/project/LaterPackPrint/レターパック.xlsx
+++ b/project/LaterPackPrint/レターパック.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <r>
       <t/>
@@ -340,22 +340,25 @@
   <si>
     <t>品名</t>
   </si>
-  <si>
-    <t/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -895,248 +898,248 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="8" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="8" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="11" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="5" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="14" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="15" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="14" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="15" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="16" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="16" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="17" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="21" applyBorder="1" fontId="5" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="17" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="22" applyBorder="1" fontId="18" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="19" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="23" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="22" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="20" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="20" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="24" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="21" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="25" applyBorder="1" fontId="22" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="25" applyBorder="1" fontId="14" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="25" applyBorder="1" fontId="22" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="26" applyBorder="1" fontId="22" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="23" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="26" applyBorder="1" fontId="22" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="24" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="25" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="27" applyBorder="1" fontId="25" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="26" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="27" applyBorder="1" fontId="25" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="27" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="7" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="7" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="11" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="11" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="4" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="14" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="14" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="15" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="15" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="16" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="21" applyBorder="1" fontId="4" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="17" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="22" applyBorder="1" fontId="17" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="18" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="23" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="22" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="19" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="19" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="24" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="20" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="25" applyBorder="1" fontId="21" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="25" applyBorder="1" fontId="13" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="25" applyBorder="1" fontId="21" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="26" applyBorder="1" fontId="21" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="22" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="26" applyBorder="1" fontId="21" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="22" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="23" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="23" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="24" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="27" applyBorder="1" fontId="24" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="25" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="27" applyBorder="1" fontId="24" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="26" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1447,13 +1450,13 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="64" width="1.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="82" width="6.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="64" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="64" width="19.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="64" width="12.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="64" width="7.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="64" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="64" width="4.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="81" width="6.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="82" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="82" width="19.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="82" width="12.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="82" width="7.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="82" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="82" width="4.862142857142857" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="64" width="13.005" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="64" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="64" width="12.43357142857143" customWidth="1" bestFit="1"/>
@@ -1462,27 +1465,27 @@
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
       <c r="A1" s="1"/>
       <c r="B1" s="66"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="32.25">
       <c r="A2" s="1"/>
       <c r="B2" s="66"/>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1490,1547 +1493,1541 @@
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
       <c r="A3" s="1"/>
       <c r="B3" s="66"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="81.75">
       <c r="A4" s="1"/>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="69" t="s">
+      <c r="D4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="69" t="s">
+      <c r="E4" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="69" t="s">
+      <c r="F4" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="69" t="s">
+      <c r="G4" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="70" t="s">
+      <c r="H4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="69" t="s">
+      <c r="I4" s="70" t="s">
         <v>19</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="27">
       <c r="A5" s="1"/>
-      <c r="B5" s="71">
+      <c r="B5" s="72">
         <v>1</v>
       </c>
-      <c r="C5" s="72" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="73"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="27">
       <c r="A6" s="1"/>
-      <c r="B6" s="71">
+      <c r="B6" s="72">
         <v>2</v>
       </c>
-      <c r="C6" s="72" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="27">
       <c r="A7" s="1"/>
-      <c r="B7" s="71">
+      <c r="B7" s="72">
         <v>3</v>
       </c>
-      <c r="C7" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="73"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+      <c r="K7" s="74"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="26.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="71">
+      <c r="B8" s="72">
         <v>4</v>
       </c>
-      <c r="C8" s="76"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="22.5">
       <c r="A9" s="1"/>
-      <c r="B9" s="71">
+      <c r="B9" s="72">
         <v>5</v>
       </c>
-      <c r="C9" s="78"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="22.5">
       <c r="A10" s="1"/>
-      <c r="B10" s="71">
+      <c r="B10" s="72">
         <v>6</v>
       </c>
-      <c r="C10" s="76"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="22.5">
       <c r="A11" s="1"/>
-      <c r="B11" s="71">
+      <c r="B11" s="72">
         <v>7</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="26.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="71">
+      <c r="B12" s="72">
         <v>8</v>
       </c>
-      <c r="C12" s="74"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1"/>
-      <c r="B13" s="71">
+      <c r="B13" s="72">
         <v>9</v>
       </c>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1"/>
-      <c r="B14" s="71">
+      <c r="B14" s="72">
         <v>10</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="1"/>
-      <c r="B15" s="71">
+      <c r="B15" s="72">
         <v>11</v>
       </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1"/>
-      <c r="B16" s="71">
+      <c r="B16" s="72">
         <v>12</v>
       </c>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="1"/>
-      <c r="B17" s="71">
+      <c r="B17" s="72">
         <v>13</v>
       </c>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="1"/>
-      <c r="B18" s="71">
+      <c r="B18" s="72">
         <v>14</v>
       </c>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="1"/>
-      <c r="B19" s="71">
+      <c r="B19" s="72">
         <v>15</v>
       </c>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="1"/>
-      <c r="B20" s="71">
+      <c r="B20" s="72">
         <v>16</v>
       </c>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="1"/>
-      <c r="B21" s="71">
+      <c r="B21" s="72">
         <v>17</v>
       </c>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="1"/>
-      <c r="B22" s="71">
+      <c r="B22" s="72">
         <v>18</v>
       </c>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="1"/>
-      <c r="B23" s="71">
+      <c r="B23" s="72">
         <v>19</v>
       </c>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="73"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="1"/>
-      <c r="B24" s="71">
+      <c r="B24" s="72">
         <v>20</v>
       </c>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="1"/>
-      <c r="B25" s="71">
+      <c r="B25" s="72">
         <v>21</v>
       </c>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="1"/>
-      <c r="B26" s="71">
+      <c r="B26" s="72">
         <v>22</v>
       </c>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="1"/>
-      <c r="B27" s="71">
+      <c r="B27" s="72">
         <v>23</v>
       </c>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="73"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="74"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="1"/>
-      <c r="B28" s="71">
+      <c r="B28" s="72">
         <v>24</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="74"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="1"/>
-      <c r="B29" s="71">
+      <c r="B29" s="72">
         <v>25</v>
       </c>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="73"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="74"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="71">
+      <c r="B30" s="72">
         <v>26</v>
       </c>
-      <c r="C30" s="73"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="71">
+      <c r="B31" s="72">
         <v>27</v>
       </c>
-      <c r="C31" s="73"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="73"/>
-      <c r="I31" s="73"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="74"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="71">
+      <c r="B32" s="72">
         <v>28</v>
       </c>
-      <c r="C32" s="73"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="73"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="74"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="71">
+      <c r="B33" s="72">
         <v>29</v>
       </c>
-      <c r="C33" s="73"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="73"/>
-      <c r="I33" s="73"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="74"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="71">
+      <c r="B34" s="72">
         <v>30</v>
       </c>
-      <c r="C34" s="73"/>
-      <c r="D34" s="73"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="73"/>
-      <c r="I34" s="73"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="74"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="71">
+      <c r="B35" s="72">
         <v>31</v>
       </c>
-      <c r="C35" s="73"/>
-      <c r="D35" s="73"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="73"/>
+      <c r="C35" s="74"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="74"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="71">
+      <c r="B36" s="72">
         <v>32</v>
       </c>
-      <c r="C36" s="73"/>
-      <c r="D36" s="73"/>
-      <c r="E36" s="73"/>
-      <c r="F36" s="73"/>
-      <c r="G36" s="73"/>
-      <c r="H36" s="73"/>
-      <c r="I36" s="73"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="74"/>
+      <c r="G36" s="74"/>
+      <c r="H36" s="74"/>
+      <c r="I36" s="74"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="71">
+      <c r="B37" s="72">
         <v>33</v>
       </c>
-      <c r="C37" s="73"/>
-      <c r="D37" s="73"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="73"/>
-      <c r="H37" s="73"/>
-      <c r="I37" s="73"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="74"/>
+      <c r="G37" s="74"/>
+      <c r="H37" s="74"/>
+      <c r="I37" s="74"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="71">
+      <c r="B38" s="72">
         <v>34</v>
       </c>
-      <c r="C38" s="73"/>
-      <c r="D38" s="73"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="73"/>
-      <c r="G38" s="73"/>
-      <c r="H38" s="73"/>
-      <c r="I38" s="73"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="74"/>
+      <c r="H38" s="74"/>
+      <c r="I38" s="74"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="71">
+      <c r="B39" s="72">
         <v>35</v>
       </c>
-      <c r="C39" s="73"/>
-      <c r="D39" s="73"/>
-      <c r="E39" s="73"/>
-      <c r="F39" s="73"/>
-      <c r="G39" s="73"/>
-      <c r="H39" s="73"/>
-      <c r="I39" s="73"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="74"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="71">
+      <c r="B40" s="72">
         <v>36</v>
       </c>
-      <c r="C40" s="73"/>
-      <c r="D40" s="73"/>
-      <c r="E40" s="73"/>
-      <c r="F40" s="73"/>
-      <c r="G40" s="73"/>
-      <c r="H40" s="73"/>
-      <c r="I40" s="73"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="74"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="71">
+      <c r="B41" s="72">
         <v>37</v>
       </c>
-      <c r="C41" s="73"/>
-      <c r="D41" s="73"/>
-      <c r="E41" s="73"/>
-      <c r="F41" s="73"/>
-      <c r="G41" s="73"/>
-      <c r="H41" s="73"/>
-      <c r="I41" s="73"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="74"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="74"/>
+      <c r="G41" s="74"/>
+      <c r="H41" s="74"/>
+      <c r="I41" s="74"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="71">
+      <c r="B42" s="72">
         <v>38</v>
       </c>
-      <c r="C42" s="73"/>
-      <c r="D42" s="73"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="73"/>
-      <c r="G42" s="73"/>
-      <c r="H42" s="73"/>
-      <c r="I42" s="73"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="74"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="74"/>
+      <c r="G42" s="74"/>
+      <c r="H42" s="74"/>
+      <c r="I42" s="74"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="71">
+      <c r="B43" s="72">
         <v>39</v>
       </c>
-      <c r="C43" s="73"/>
-      <c r="D43" s="73"/>
-      <c r="E43" s="73"/>
-      <c r="F43" s="73"/>
-      <c r="G43" s="73"/>
-      <c r="H43" s="73"/>
-      <c r="I43" s="73"/>
+      <c r="C43" s="74"/>
+      <c r="D43" s="74"/>
+      <c r="E43" s="74"/>
+      <c r="F43" s="74"/>
+      <c r="G43" s="74"/>
+      <c r="H43" s="74"/>
+      <c r="I43" s="74"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="71">
+      <c r="B44" s="72">
         <v>40</v>
       </c>
-      <c r="C44" s="73"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="73"/>
-      <c r="F44" s="73"/>
-      <c r="G44" s="73"/>
-      <c r="H44" s="73"/>
-      <c r="I44" s="73"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="74"/>
+      <c r="G44" s="74"/>
+      <c r="H44" s="74"/>
+      <c r="I44" s="74"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="71">
+      <c r="B45" s="72">
         <v>41</v>
       </c>
-      <c r="C45" s="73"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="73"/>
-      <c r="G45" s="73"/>
-      <c r="H45" s="73"/>
-      <c r="I45" s="73"/>
+      <c r="C45" s="74"/>
+      <c r="D45" s="74"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="74"/>
+      <c r="G45" s="74"/>
+      <c r="H45" s="74"/>
+      <c r="I45" s="74"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="71">
+      <c r="B46" s="72">
         <v>42</v>
       </c>
-      <c r="C46" s="73"/>
-      <c r="D46" s="73"/>
-      <c r="E46" s="73"/>
-      <c r="F46" s="73"/>
-      <c r="G46" s="73"/>
-      <c r="H46" s="73"/>
-      <c r="I46" s="73"/>
+      <c r="C46" s="74"/>
+      <c r="D46" s="74"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="74"/>
+      <c r="G46" s="74"/>
+      <c r="H46" s="74"/>
+      <c r="I46" s="74"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="71">
+      <c r="B47" s="72">
         <v>43</v>
       </c>
-      <c r="C47" s="73"/>
-      <c r="D47" s="73"/>
-      <c r="E47" s="73"/>
-      <c r="F47" s="73"/>
-      <c r="G47" s="73"/>
-      <c r="H47" s="73"/>
-      <c r="I47" s="73"/>
+      <c r="C47" s="74"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="74"/>
+      <c r="H47" s="74"/>
+      <c r="I47" s="74"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="71">
+      <c r="B48" s="72">
         <v>44</v>
       </c>
-      <c r="C48" s="73"/>
-      <c r="D48" s="73"/>
-      <c r="E48" s="73"/>
-      <c r="F48" s="73"/>
-      <c r="G48" s="73"/>
-      <c r="H48" s="73"/>
-      <c r="I48" s="73"/>
+      <c r="C48" s="74"/>
+      <c r="D48" s="74"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="74"/>
+      <c r="G48" s="74"/>
+      <c r="H48" s="74"/>
+      <c r="I48" s="74"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="71">
+      <c r="B49" s="72">
         <v>45</v>
       </c>
-      <c r="C49" s="73"/>
-      <c r="D49" s="73"/>
-      <c r="E49" s="73"/>
-      <c r="F49" s="73"/>
-      <c r="G49" s="73"/>
-      <c r="H49" s="73"/>
-      <c r="I49" s="73"/>
+      <c r="C49" s="74"/>
+      <c r="D49" s="74"/>
+      <c r="E49" s="74"/>
+      <c r="F49" s="74"/>
+      <c r="G49" s="74"/>
+      <c r="H49" s="74"/>
+      <c r="I49" s="74"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="71">
+      <c r="B50" s="72">
         <v>46</v>
       </c>
-      <c r="C50" s="73"/>
-      <c r="D50" s="73"/>
-      <c r="E50" s="73"/>
-      <c r="F50" s="73"/>
-      <c r="G50" s="73"/>
-      <c r="H50" s="73"/>
-      <c r="I50" s="73"/>
+      <c r="C50" s="74"/>
+      <c r="D50" s="74"/>
+      <c r="E50" s="74"/>
+      <c r="F50" s="74"/>
+      <c r="G50" s="74"/>
+      <c r="H50" s="74"/>
+      <c r="I50" s="74"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="71">
+      <c r="B51" s="72">
         <v>47</v>
       </c>
-      <c r="C51" s="73"/>
-      <c r="D51" s="73"/>
-      <c r="E51" s="73"/>
-      <c r="F51" s="73"/>
-      <c r="G51" s="73"/>
-      <c r="H51" s="73"/>
-      <c r="I51" s="73"/>
+      <c r="C51" s="74"/>
+      <c r="D51" s="74"/>
+      <c r="E51" s="74"/>
+      <c r="F51" s="74"/>
+      <c r="G51" s="74"/>
+      <c r="H51" s="74"/>
+      <c r="I51" s="74"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="71">
+      <c r="B52" s="72">
         <v>48</v>
       </c>
-      <c r="C52" s="73"/>
-      <c r="D52" s="73"/>
-      <c r="E52" s="73"/>
-      <c r="F52" s="73"/>
-      <c r="G52" s="73"/>
-      <c r="H52" s="73"/>
-      <c r="I52" s="73"/>
+      <c r="C52" s="74"/>
+      <c r="D52" s="74"/>
+      <c r="E52" s="74"/>
+      <c r="F52" s="74"/>
+      <c r="G52" s="74"/>
+      <c r="H52" s="74"/>
+      <c r="I52" s="74"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="71">
+      <c r="B53" s="72">
         <v>49</v>
       </c>
-      <c r="C53" s="73"/>
-      <c r="D53" s="73"/>
-      <c r="E53" s="73"/>
-      <c r="F53" s="73"/>
-      <c r="G53" s="73"/>
-      <c r="H53" s="73"/>
-      <c r="I53" s="73"/>
+      <c r="C53" s="74"/>
+      <c r="D53" s="74"/>
+      <c r="E53" s="74"/>
+      <c r="F53" s="74"/>
+      <c r="G53" s="74"/>
+      <c r="H53" s="74"/>
+      <c r="I53" s="74"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="71">
+      <c r="B54" s="72">
         <v>50</v>
       </c>
-      <c r="C54" s="73"/>
-      <c r="D54" s="73"/>
-      <c r="E54" s="73"/>
-      <c r="F54" s="73"/>
-      <c r="G54" s="73"/>
-      <c r="H54" s="73"/>
-      <c r="I54" s="73"/>
+      <c r="C54" s="74"/>
+      <c r="D54" s="74"/>
+      <c r="E54" s="74"/>
+      <c r="F54" s="74"/>
+      <c r="G54" s="74"/>
+      <c r="H54" s="74"/>
+      <c r="I54" s="74"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="71">
+      <c r="B55" s="72">
         <v>51</v>
       </c>
-      <c r="C55" s="73"/>
-      <c r="D55" s="73"/>
-      <c r="E55" s="73"/>
-      <c r="F55" s="73"/>
-      <c r="G55" s="73"/>
-      <c r="H55" s="73"/>
-      <c r="I55" s="73"/>
+      <c r="C55" s="74"/>
+      <c r="D55" s="74"/>
+      <c r="E55" s="74"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="74"/>
+      <c r="H55" s="74"/>
+      <c r="I55" s="74"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="71">
+      <c r="B56" s="72">
         <v>52</v>
       </c>
-      <c r="C56" s="73"/>
-      <c r="D56" s="73"/>
-      <c r="E56" s="73"/>
-      <c r="F56" s="73"/>
-      <c r="G56" s="73"/>
-      <c r="H56" s="73"/>
-      <c r="I56" s="73"/>
+      <c r="C56" s="74"/>
+      <c r="D56" s="74"/>
+      <c r="E56" s="74"/>
+      <c r="F56" s="74"/>
+      <c r="G56" s="74"/>
+      <c r="H56" s="74"/>
+      <c r="I56" s="74"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="71">
+      <c r="B57" s="72">
         <v>53</v>
       </c>
-      <c r="C57" s="73"/>
-      <c r="D57" s="73"/>
-      <c r="E57" s="73"/>
-      <c r="F57" s="73"/>
-      <c r="G57" s="73"/>
-      <c r="H57" s="73"/>
-      <c r="I57" s="73"/>
+      <c r="C57" s="74"/>
+      <c r="D57" s="74"/>
+      <c r="E57" s="74"/>
+      <c r="F57" s="74"/>
+      <c r="G57" s="74"/>
+      <c r="H57" s="74"/>
+      <c r="I57" s="74"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
       <c r="A58" s="1"/>
-      <c r="B58" s="71">
+      <c r="B58" s="72">
         <v>54</v>
       </c>
-      <c r="C58" s="73"/>
-      <c r="D58" s="73"/>
-      <c r="E58" s="73"/>
-      <c r="F58" s="73"/>
-      <c r="G58" s="73"/>
-      <c r="H58" s="73"/>
-      <c r="I58" s="73"/>
+      <c r="C58" s="74"/>
+      <c r="D58" s="74"/>
+      <c r="E58" s="74"/>
+      <c r="F58" s="74"/>
+      <c r="G58" s="74"/>
+      <c r="H58" s="74"/>
+      <c r="I58" s="74"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
       <c r="A59" s="1"/>
-      <c r="B59" s="71">
+      <c r="B59" s="72">
         <v>55</v>
       </c>
-      <c r="C59" s="73"/>
-      <c r="D59" s="73"/>
-      <c r="E59" s="73"/>
-      <c r="F59" s="73"/>
-      <c r="G59" s="73"/>
-      <c r="H59" s="73"/>
-      <c r="I59" s="73"/>
+      <c r="C59" s="74"/>
+      <c r="D59" s="74"/>
+      <c r="E59" s="74"/>
+      <c r="F59" s="74"/>
+      <c r="G59" s="74"/>
+      <c r="H59" s="74"/>
+      <c r="I59" s="74"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="71">
+      <c r="B60" s="72">
         <v>56</v>
       </c>
-      <c r="C60" s="73"/>
-      <c r="D60" s="73"/>
-      <c r="E60" s="73"/>
-      <c r="F60" s="73"/>
-      <c r="G60" s="73"/>
-      <c r="H60" s="73"/>
-      <c r="I60" s="73"/>
+      <c r="C60" s="74"/>
+      <c r="D60" s="74"/>
+      <c r="E60" s="74"/>
+      <c r="F60" s="74"/>
+      <c r="G60" s="74"/>
+      <c r="H60" s="74"/>
+      <c r="I60" s="74"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="71">
+      <c r="B61" s="72">
         <v>57</v>
       </c>
-      <c r="C61" s="73"/>
-      <c r="D61" s="73"/>
-      <c r="E61" s="73"/>
-      <c r="F61" s="73"/>
-      <c r="G61" s="73"/>
-      <c r="H61" s="73"/>
-      <c r="I61" s="73"/>
+      <c r="C61" s="74"/>
+      <c r="D61" s="74"/>
+      <c r="E61" s="74"/>
+      <c r="F61" s="74"/>
+      <c r="G61" s="74"/>
+      <c r="H61" s="74"/>
+      <c r="I61" s="74"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
       <c r="A62" s="1"/>
-      <c r="B62" s="71">
+      <c r="B62" s="72">
         <v>58</v>
       </c>
-      <c r="C62" s="73"/>
-      <c r="D62" s="73"/>
-      <c r="E62" s="73"/>
-      <c r="F62" s="73"/>
-      <c r="G62" s="73"/>
-      <c r="H62" s="73"/>
-      <c r="I62" s="73"/>
+      <c r="C62" s="74"/>
+      <c r="D62" s="74"/>
+      <c r="E62" s="74"/>
+      <c r="F62" s="74"/>
+      <c r="G62" s="74"/>
+      <c r="H62" s="74"/>
+      <c r="I62" s="74"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
       <c r="A63" s="1"/>
-      <c r="B63" s="71">
+      <c r="B63" s="72">
         <v>59</v>
       </c>
-      <c r="C63" s="73"/>
-      <c r="D63" s="73"/>
-      <c r="E63" s="73"/>
-      <c r="F63" s="73"/>
-      <c r="G63" s="73"/>
-      <c r="H63" s="73"/>
-      <c r="I63" s="73"/>
+      <c r="C63" s="74"/>
+      <c r="D63" s="74"/>
+      <c r="E63" s="74"/>
+      <c r="F63" s="74"/>
+      <c r="G63" s="74"/>
+      <c r="H63" s="74"/>
+      <c r="I63" s="74"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
       <c r="A64" s="1"/>
-      <c r="B64" s="71">
+      <c r="B64" s="72">
         <v>60</v>
       </c>
-      <c r="C64" s="73"/>
-      <c r="D64" s="73"/>
-      <c r="E64" s="73"/>
-      <c r="F64" s="73"/>
-      <c r="G64" s="73"/>
-      <c r="H64" s="73"/>
-      <c r="I64" s="73"/>
+      <c r="C64" s="74"/>
+      <c r="D64" s="74"/>
+      <c r="E64" s="74"/>
+      <c r="F64" s="74"/>
+      <c r="G64" s="74"/>
+      <c r="H64" s="74"/>
+      <c r="I64" s="74"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
       <c r="A65" s="1"/>
-      <c r="B65" s="71">
+      <c r="B65" s="72">
         <v>61</v>
       </c>
-      <c r="C65" s="73"/>
-      <c r="D65" s="73"/>
-      <c r="E65" s="73"/>
-      <c r="F65" s="73"/>
-      <c r="G65" s="73"/>
-      <c r="H65" s="73"/>
-      <c r="I65" s="73"/>
+      <c r="C65" s="74"/>
+      <c r="D65" s="74"/>
+      <c r="E65" s="74"/>
+      <c r="F65" s="74"/>
+      <c r="G65" s="74"/>
+      <c r="H65" s="74"/>
+      <c r="I65" s="74"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
       <c r="A66" s="1"/>
-      <c r="B66" s="71">
+      <c r="B66" s="72">
         <v>62</v>
       </c>
-      <c r="C66" s="73"/>
-      <c r="D66" s="73"/>
-      <c r="E66" s="73"/>
-      <c r="F66" s="73"/>
-      <c r="G66" s="73"/>
-      <c r="H66" s="73"/>
-      <c r="I66" s="73"/>
+      <c r="C66" s="74"/>
+      <c r="D66" s="74"/>
+      <c r="E66" s="74"/>
+      <c r="F66" s="74"/>
+      <c r="G66" s="74"/>
+      <c r="H66" s="74"/>
+      <c r="I66" s="74"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
       <c r="A67" s="1"/>
-      <c r="B67" s="71">
+      <c r="B67" s="72">
         <v>63</v>
       </c>
-      <c r="C67" s="73"/>
-      <c r="D67" s="73"/>
-      <c r="E67" s="73"/>
-      <c r="F67" s="73"/>
-      <c r="G67" s="73"/>
-      <c r="H67" s="73"/>
-      <c r="I67" s="73"/>
+      <c r="C67" s="74"/>
+      <c r="D67" s="74"/>
+      <c r="E67" s="74"/>
+      <c r="F67" s="74"/>
+      <c r="G67" s="74"/>
+      <c r="H67" s="74"/>
+      <c r="I67" s="74"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
       <c r="A68" s="1"/>
-      <c r="B68" s="71">
+      <c r="B68" s="72">
         <v>64</v>
       </c>
-      <c r="C68" s="73"/>
-      <c r="D68" s="73"/>
-      <c r="E68" s="73"/>
-      <c r="F68" s="73"/>
-      <c r="G68" s="73"/>
-      <c r="H68" s="73"/>
-      <c r="I68" s="73"/>
+      <c r="C68" s="74"/>
+      <c r="D68" s="74"/>
+      <c r="E68" s="74"/>
+      <c r="F68" s="74"/>
+      <c r="G68" s="74"/>
+      <c r="H68" s="74"/>
+      <c r="I68" s="74"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
       <c r="A69" s="1"/>
-      <c r="B69" s="71">
+      <c r="B69" s="72">
         <v>65</v>
       </c>
-      <c r="C69" s="73"/>
-      <c r="D69" s="73"/>
-      <c r="E69" s="73"/>
-      <c r="F69" s="73"/>
-      <c r="G69" s="73"/>
-      <c r="H69" s="73"/>
-      <c r="I69" s="73"/>
+      <c r="C69" s="74"/>
+      <c r="D69" s="74"/>
+      <c r="E69" s="74"/>
+      <c r="F69" s="74"/>
+      <c r="G69" s="74"/>
+      <c r="H69" s="74"/>
+      <c r="I69" s="74"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
       <c r="A70" s="1"/>
-      <c r="B70" s="71">
+      <c r="B70" s="72">
         <v>66</v>
       </c>
-      <c r="C70" s="73"/>
-      <c r="D70" s="73"/>
-      <c r="E70" s="73"/>
-      <c r="F70" s="73"/>
-      <c r="G70" s="73"/>
-      <c r="H70" s="73"/>
-      <c r="I70" s="73"/>
+      <c r="C70" s="74"/>
+      <c r="D70" s="74"/>
+      <c r="E70" s="74"/>
+      <c r="F70" s="74"/>
+      <c r="G70" s="74"/>
+      <c r="H70" s="74"/>
+      <c r="I70" s="74"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
       <c r="A71" s="1"/>
-      <c r="B71" s="71">
+      <c r="B71" s="72">
         <v>67</v>
       </c>
-      <c r="C71" s="73"/>
-      <c r="D71" s="73"/>
-      <c r="E71" s="73"/>
-      <c r="F71" s="73"/>
-      <c r="G71" s="73"/>
-      <c r="H71" s="73"/>
-      <c r="I71" s="73"/>
+      <c r="C71" s="74"/>
+      <c r="D71" s="74"/>
+      <c r="E71" s="74"/>
+      <c r="F71" s="74"/>
+      <c r="G71" s="74"/>
+      <c r="H71" s="74"/>
+      <c r="I71" s="74"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
       <c r="A72" s="1"/>
-      <c r="B72" s="71">
+      <c r="B72" s="72">
         <v>68</v>
       </c>
-      <c r="C72" s="73"/>
-      <c r="D72" s="73"/>
-      <c r="E72" s="73"/>
-      <c r="F72" s="73"/>
-      <c r="G72" s="73"/>
-      <c r="H72" s="73"/>
-      <c r="I72" s="73"/>
+      <c r="C72" s="74"/>
+      <c r="D72" s="74"/>
+      <c r="E72" s="74"/>
+      <c r="F72" s="74"/>
+      <c r="G72" s="74"/>
+      <c r="H72" s="74"/>
+      <c r="I72" s="74"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="71">
+      <c r="B73" s="72">
         <v>69</v>
       </c>
-      <c r="C73" s="73"/>
-      <c r="D73" s="73"/>
-      <c r="E73" s="73"/>
-      <c r="F73" s="73"/>
-      <c r="G73" s="73"/>
-      <c r="H73" s="73"/>
-      <c r="I73" s="73"/>
+      <c r="C73" s="74"/>
+      <c r="D73" s="74"/>
+      <c r="E73" s="74"/>
+      <c r="F73" s="74"/>
+      <c r="G73" s="74"/>
+      <c r="H73" s="74"/>
+      <c r="I73" s="74"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
       <c r="A74" s="1"/>
-      <c r="B74" s="71">
+      <c r="B74" s="72">
         <v>70</v>
       </c>
-      <c r="C74" s="73"/>
-      <c r="D74" s="73"/>
-      <c r="E74" s="73"/>
-      <c r="F74" s="73"/>
-      <c r="G74" s="73"/>
-      <c r="H74" s="73"/>
-      <c r="I74" s="73"/>
+      <c r="C74" s="74"/>
+      <c r="D74" s="74"/>
+      <c r="E74" s="74"/>
+      <c r="F74" s="74"/>
+      <c r="G74" s="74"/>
+      <c r="H74" s="74"/>
+      <c r="I74" s="74"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
       <c r="A75" s="1"/>
-      <c r="B75" s="71">
+      <c r="B75" s="72">
         <v>71</v>
       </c>
-      <c r="C75" s="73"/>
-      <c r="D75" s="73"/>
-      <c r="E75" s="73"/>
-      <c r="F75" s="73"/>
-      <c r="G75" s="73"/>
-      <c r="H75" s="73"/>
-      <c r="I75" s="73"/>
+      <c r="C75" s="74"/>
+      <c r="D75" s="74"/>
+      <c r="E75" s="74"/>
+      <c r="F75" s="74"/>
+      <c r="G75" s="74"/>
+      <c r="H75" s="74"/>
+      <c r="I75" s="74"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
       <c r="A76" s="1"/>
-      <c r="B76" s="71">
+      <c r="B76" s="72">
         <v>72</v>
       </c>
-      <c r="C76" s="73"/>
-      <c r="D76" s="73"/>
-      <c r="E76" s="73"/>
-      <c r="F76" s="73"/>
-      <c r="G76" s="73"/>
-      <c r="H76" s="73"/>
-      <c r="I76" s="73"/>
+      <c r="C76" s="74"/>
+      <c r="D76" s="74"/>
+      <c r="E76" s="74"/>
+      <c r="F76" s="74"/>
+      <c r="G76" s="74"/>
+      <c r="H76" s="74"/>
+      <c r="I76" s="74"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
       <c r="A77" s="1"/>
-      <c r="B77" s="71">
+      <c r="B77" s="72">
         <v>73</v>
       </c>
-      <c r="C77" s="73"/>
-      <c r="D77" s="73"/>
-      <c r="E77" s="73"/>
-      <c r="F77" s="73"/>
-      <c r="G77" s="73"/>
-      <c r="H77" s="73"/>
-      <c r="I77" s="73"/>
+      <c r="C77" s="74"/>
+      <c r="D77" s="74"/>
+      <c r="E77" s="74"/>
+      <c r="F77" s="74"/>
+      <c r="G77" s="74"/>
+      <c r="H77" s="74"/>
+      <c r="I77" s="74"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
       <c r="A78" s="1"/>
-      <c r="B78" s="71">
+      <c r="B78" s="72">
         <v>74</v>
       </c>
-      <c r="C78" s="73"/>
-      <c r="D78" s="73"/>
-      <c r="E78" s="73"/>
-      <c r="F78" s="73"/>
-      <c r="G78" s="73"/>
-      <c r="H78" s="73"/>
-      <c r="I78" s="73"/>
+      <c r="C78" s="74"/>
+      <c r="D78" s="74"/>
+      <c r="E78" s="74"/>
+      <c r="F78" s="74"/>
+      <c r="G78" s="74"/>
+      <c r="H78" s="74"/>
+      <c r="I78" s="74"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
       <c r="A79" s="1"/>
-      <c r="B79" s="71">
+      <c r="B79" s="72">
         <v>75</v>
       </c>
-      <c r="C79" s="73"/>
-      <c r="D79" s="73"/>
-      <c r="E79" s="73"/>
-      <c r="F79" s="73"/>
-      <c r="G79" s="73"/>
-      <c r="H79" s="73"/>
-      <c r="I79" s="73"/>
+      <c r="C79" s="74"/>
+      <c r="D79" s="74"/>
+      <c r="E79" s="74"/>
+      <c r="F79" s="74"/>
+      <c r="G79" s="74"/>
+      <c r="H79" s="74"/>
+      <c r="I79" s="74"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
       <c r="A80" s="1"/>
-      <c r="B80" s="71">
+      <c r="B80" s="72">
         <v>76</v>
       </c>
-      <c r="C80" s="73"/>
-      <c r="D80" s="73"/>
-      <c r="E80" s="73"/>
-      <c r="F80" s="73"/>
-      <c r="G80" s="73"/>
-      <c r="H80" s="73"/>
-      <c r="I80" s="73"/>
+      <c r="C80" s="74"/>
+      <c r="D80" s="74"/>
+      <c r="E80" s="74"/>
+      <c r="F80" s="74"/>
+      <c r="G80" s="74"/>
+      <c r="H80" s="74"/>
+      <c r="I80" s="74"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
       <c r="A81" s="1"/>
-      <c r="B81" s="71">
+      <c r="B81" s="72">
         <v>77</v>
       </c>
-      <c r="C81" s="73"/>
-      <c r="D81" s="73"/>
-      <c r="E81" s="73"/>
-      <c r="F81" s="73"/>
-      <c r="G81" s="73"/>
-      <c r="H81" s="73"/>
-      <c r="I81" s="73"/>
+      <c r="C81" s="74"/>
+      <c r="D81" s="74"/>
+      <c r="E81" s="74"/>
+      <c r="F81" s="74"/>
+      <c r="G81" s="74"/>
+      <c r="H81" s="74"/>
+      <c r="I81" s="74"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
       <c r="A82" s="1"/>
-      <c r="B82" s="71">
+      <c r="B82" s="72">
         <v>78</v>
       </c>
-      <c r="C82" s="73"/>
-      <c r="D82" s="73"/>
-      <c r="E82" s="73"/>
-      <c r="F82" s="73"/>
-      <c r="G82" s="73"/>
-      <c r="H82" s="73"/>
-      <c r="I82" s="73"/>
+      <c r="C82" s="74"/>
+      <c r="D82" s="74"/>
+      <c r="E82" s="74"/>
+      <c r="F82" s="74"/>
+      <c r="G82" s="74"/>
+      <c r="H82" s="74"/>
+      <c r="I82" s="74"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
       <c r="A83" s="1"/>
-      <c r="B83" s="71">
+      <c r="B83" s="72">
         <v>79</v>
       </c>
-      <c r="C83" s="73"/>
-      <c r="D83" s="73"/>
-      <c r="E83" s="73"/>
-      <c r="F83" s="73"/>
-      <c r="G83" s="73"/>
-      <c r="H83" s="73"/>
-      <c r="I83" s="73"/>
+      <c r="C83" s="74"/>
+      <c r="D83" s="74"/>
+      <c r="E83" s="74"/>
+      <c r="F83" s="74"/>
+      <c r="G83" s="74"/>
+      <c r="H83" s="74"/>
+      <c r="I83" s="74"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
       <c r="A84" s="1"/>
-      <c r="B84" s="71">
+      <c r="B84" s="72">
         <v>80</v>
       </c>
-      <c r="C84" s="73"/>
-      <c r="D84" s="73"/>
-      <c r="E84" s="73"/>
-      <c r="F84" s="73"/>
-      <c r="G84" s="73"/>
-      <c r="H84" s="73"/>
-      <c r="I84" s="73"/>
+      <c r="C84" s="74"/>
+      <c r="D84" s="74"/>
+      <c r="E84" s="74"/>
+      <c r="F84" s="74"/>
+      <c r="G84" s="74"/>
+      <c r="H84" s="74"/>
+      <c r="I84" s="74"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
       <c r="A85" s="1"/>
-      <c r="B85" s="71">
+      <c r="B85" s="72">
         <v>81</v>
       </c>
-      <c r="C85" s="73"/>
-      <c r="D85" s="73"/>
-      <c r="E85" s="73"/>
-      <c r="F85" s="73"/>
-      <c r="G85" s="73"/>
-      <c r="H85" s="73"/>
-      <c r="I85" s="73"/>
+      <c r="C85" s="74"/>
+      <c r="D85" s="74"/>
+      <c r="E85" s="74"/>
+      <c r="F85" s="74"/>
+      <c r="G85" s="74"/>
+      <c r="H85" s="74"/>
+      <c r="I85" s="74"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
       <c r="A86" s="1"/>
-      <c r="B86" s="71">
+      <c r="B86" s="72">
         <v>82</v>
       </c>
-      <c r="C86" s="73"/>
-      <c r="D86" s="73"/>
-      <c r="E86" s="73"/>
-      <c r="F86" s="73"/>
-      <c r="G86" s="73"/>
-      <c r="H86" s="73"/>
-      <c r="I86" s="73"/>
+      <c r="C86" s="74"/>
+      <c r="D86" s="74"/>
+      <c r="E86" s="74"/>
+      <c r="F86" s="74"/>
+      <c r="G86" s="74"/>
+      <c r="H86" s="74"/>
+      <c r="I86" s="74"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
       <c r="A87" s="1"/>
-      <c r="B87" s="71">
+      <c r="B87" s="72">
         <v>83</v>
       </c>
-      <c r="C87" s="73"/>
-      <c r="D87" s="73"/>
-      <c r="E87" s="73"/>
-      <c r="F87" s="73"/>
-      <c r="G87" s="73"/>
-      <c r="H87" s="73"/>
-      <c r="I87" s="73"/>
+      <c r="C87" s="74"/>
+      <c r="D87" s="74"/>
+      <c r="E87" s="74"/>
+      <c r="F87" s="74"/>
+      <c r="G87" s="74"/>
+      <c r="H87" s="74"/>
+      <c r="I87" s="74"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
       <c r="A88" s="1"/>
-      <c r="B88" s="71">
+      <c r="B88" s="72">
         <v>84</v>
       </c>
-      <c r="C88" s="73"/>
-      <c r="D88" s="73"/>
-      <c r="E88" s="73"/>
-      <c r="F88" s="73"/>
-      <c r="G88" s="73"/>
-      <c r="H88" s="73"/>
-      <c r="I88" s="73"/>
+      <c r="C88" s="74"/>
+      <c r="D88" s="74"/>
+      <c r="E88" s="74"/>
+      <c r="F88" s="74"/>
+      <c r="G88" s="74"/>
+      <c r="H88" s="74"/>
+      <c r="I88" s="74"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
       <c r="A89" s="1"/>
-      <c r="B89" s="71">
+      <c r="B89" s="72">
         <v>85</v>
       </c>
-      <c r="C89" s="73"/>
-      <c r="D89" s="73"/>
-      <c r="E89" s="73"/>
-      <c r="F89" s="73"/>
-      <c r="G89" s="73"/>
-      <c r="H89" s="73"/>
-      <c r="I89" s="73"/>
+      <c r="C89" s="74"/>
+      <c r="D89" s="74"/>
+      <c r="E89" s="74"/>
+      <c r="F89" s="74"/>
+      <c r="G89" s="74"/>
+      <c r="H89" s="74"/>
+      <c r="I89" s="74"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
       <c r="A90" s="1"/>
-      <c r="B90" s="71">
+      <c r="B90" s="72">
         <v>86</v>
       </c>
-      <c r="C90" s="73"/>
-      <c r="D90" s="73"/>
-      <c r="E90" s="73"/>
-      <c r="F90" s="73"/>
-      <c r="G90" s="73"/>
-      <c r="H90" s="73"/>
-      <c r="I90" s="73"/>
+      <c r="C90" s="74"/>
+      <c r="D90" s="74"/>
+      <c r="E90" s="74"/>
+      <c r="F90" s="74"/>
+      <c r="G90" s="74"/>
+      <c r="H90" s="74"/>
+      <c r="I90" s="74"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
       <c r="A91" s="1"/>
-      <c r="B91" s="71">
+      <c r="B91" s="72">
         <v>87</v>
       </c>
-      <c r="C91" s="73"/>
-      <c r="D91" s="73"/>
-      <c r="E91" s="73"/>
-      <c r="F91" s="73"/>
-      <c r="G91" s="73"/>
-      <c r="H91" s="73"/>
-      <c r="I91" s="73"/>
+      <c r="C91" s="74"/>
+      <c r="D91" s="74"/>
+      <c r="E91" s="74"/>
+      <c r="F91" s="74"/>
+      <c r="G91" s="74"/>
+      <c r="H91" s="74"/>
+      <c r="I91" s="74"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
       <c r="A92" s="1"/>
-      <c r="B92" s="71">
+      <c r="B92" s="72">
         <v>88</v>
       </c>
-      <c r="C92" s="73"/>
-      <c r="D92" s="73"/>
-      <c r="E92" s="73"/>
-      <c r="F92" s="73"/>
-      <c r="G92" s="73"/>
-      <c r="H92" s="73"/>
-      <c r="I92" s="73"/>
+      <c r="C92" s="74"/>
+      <c r="D92" s="74"/>
+      <c r="E92" s="74"/>
+      <c r="F92" s="74"/>
+      <c r="G92" s="74"/>
+      <c r="H92" s="74"/>
+      <c r="I92" s="74"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
       <c r="A93" s="1"/>
-      <c r="B93" s="71">
+      <c r="B93" s="72">
         <v>89</v>
       </c>
-      <c r="C93" s="73"/>
-      <c r="D93" s="73"/>
-      <c r="E93" s="73"/>
-      <c r="F93" s="73"/>
-      <c r="G93" s="73"/>
-      <c r="H93" s="73"/>
-      <c r="I93" s="73"/>
+      <c r="C93" s="74"/>
+      <c r="D93" s="74"/>
+      <c r="E93" s="74"/>
+      <c r="F93" s="74"/>
+      <c r="G93" s="74"/>
+      <c r="H93" s="74"/>
+      <c r="I93" s="74"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
       <c r="A94" s="1"/>
-      <c r="B94" s="71">
+      <c r="B94" s="72">
         <v>90</v>
       </c>
-      <c r="C94" s="73"/>
-      <c r="D94" s="73"/>
-      <c r="E94" s="73"/>
-      <c r="F94" s="73"/>
-      <c r="G94" s="73"/>
-      <c r="H94" s="73"/>
-      <c r="I94" s="73"/>
+      <c r="C94" s="74"/>
+      <c r="D94" s="74"/>
+      <c r="E94" s="74"/>
+      <c r="F94" s="74"/>
+      <c r="G94" s="74"/>
+      <c r="H94" s="74"/>
+      <c r="I94" s="74"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
       <c r="A95" s="1"/>
-      <c r="B95" s="71">
+      <c r="B95" s="72">
         <v>91</v>
       </c>
-      <c r="C95" s="73"/>
-      <c r="D95" s="73"/>
-      <c r="E95" s="73"/>
-      <c r="F95" s="73"/>
-      <c r="G95" s="73"/>
-      <c r="H95" s="73"/>
-      <c r="I95" s="73"/>
+      <c r="C95" s="74"/>
+      <c r="D95" s="74"/>
+      <c r="E95" s="74"/>
+      <c r="F95" s="74"/>
+      <c r="G95" s="74"/>
+      <c r="H95" s="74"/>
+      <c r="I95" s="74"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
       <c r="A96" s="1"/>
-      <c r="B96" s="71">
+      <c r="B96" s="72">
         <v>92</v>
       </c>
-      <c r="C96" s="73"/>
-      <c r="D96" s="73"/>
-      <c r="E96" s="73"/>
-      <c r="F96" s="73"/>
-      <c r="G96" s="73"/>
-      <c r="H96" s="73"/>
-      <c r="I96" s="73"/>
+      <c r="C96" s="74"/>
+      <c r="D96" s="74"/>
+      <c r="E96" s="74"/>
+      <c r="F96" s="74"/>
+      <c r="G96" s="74"/>
+      <c r="H96" s="74"/>
+      <c r="I96" s="74"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
       <c r="A97" s="1"/>
-      <c r="B97" s="71">
+      <c r="B97" s="72">
         <v>93</v>
       </c>
-      <c r="C97" s="73"/>
-      <c r="D97" s="73"/>
-      <c r="E97" s="73"/>
-      <c r="F97" s="73"/>
-      <c r="G97" s="73"/>
-      <c r="H97" s="73"/>
-      <c r="I97" s="73"/>
+      <c r="C97" s="74"/>
+      <c r="D97" s="74"/>
+      <c r="E97" s="74"/>
+      <c r="F97" s="74"/>
+      <c r="G97" s="74"/>
+      <c r="H97" s="74"/>
+      <c r="I97" s="74"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
       <c r="A98" s="1"/>
-      <c r="B98" s="71">
+      <c r="B98" s="72">
         <v>94</v>
       </c>
-      <c r="C98" s="73"/>
-      <c r="D98" s="73"/>
-      <c r="E98" s="73"/>
-      <c r="F98" s="73"/>
-      <c r="G98" s="73"/>
-      <c r="H98" s="73"/>
+      <c r="C98" s="74"/>
+      <c r="D98" s="74"/>
+      <c r="E98" s="74"/>
+      <c r="F98" s="74"/>
+      <c r="G98" s="74"/>
+      <c r="H98" s="74"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25">
       <c r="A99" s="1"/>
-      <c r="B99" s="71">
+      <c r="B99" s="72">
         <v>95</v>
       </c>
-      <c r="C99" s="73"/>
-      <c r="D99" s="73"/>
-      <c r="E99" s="73"/>
-      <c r="F99" s="73"/>
-      <c r="G99" s="73"/>
-      <c r="H99" s="73"/>
+      <c r="C99" s="74"/>
+      <c r="D99" s="74"/>
+      <c r="E99" s="74"/>
+      <c r="F99" s="74"/>
+      <c r="G99" s="74"/>
+      <c r="H99" s="74"/>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
       <c r="A100" s="1"/>
-      <c r="B100" s="71">
+      <c r="B100" s="72">
         <v>96</v>
       </c>
-      <c r="C100" s="73"/>
-      <c r="D100" s="73"/>
-      <c r="E100" s="73"/>
-      <c r="F100" s="73"/>
-      <c r="G100" s="73"/>
-      <c r="H100" s="73"/>
+      <c r="C100" s="74"/>
+      <c r="D100" s="74"/>
+      <c r="E100" s="74"/>
+      <c r="F100" s="74"/>
+      <c r="G100" s="74"/>
+      <c r="H100" s="74"/>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
       <c r="A101" s="1"/>
-      <c r="B101" s="71">
+      <c r="B101" s="72">
         <v>97</v>
       </c>
-      <c r="C101" s="73"/>
-      <c r="D101" s="73"/>
-      <c r="E101" s="73"/>
-      <c r="F101" s="73"/>
-      <c r="G101" s="73"/>
-      <c r="H101" s="73"/>
+      <c r="C101" s="74"/>
+      <c r="D101" s="74"/>
+      <c r="E101" s="74"/>
+      <c r="F101" s="74"/>
+      <c r="G101" s="74"/>
+      <c r="H101" s="74"/>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25">
       <c r="A102" s="1"/>
-      <c r="B102" s="71">
+      <c r="B102" s="72">
         <v>98</v>
       </c>
-      <c r="C102" s="73"/>
-      <c r="D102" s="73"/>
-      <c r="E102" s="73"/>
-      <c r="F102" s="73"/>
-      <c r="G102" s="73"/>
-      <c r="H102" s="73"/>
+      <c r="C102" s="74"/>
+      <c r="D102" s="74"/>
+      <c r="E102" s="74"/>
+      <c r="F102" s="74"/>
+      <c r="G102" s="74"/>
+      <c r="H102" s="74"/>
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25">
       <c r="A103" s="1"/>
-      <c r="B103" s="71">
+      <c r="B103" s="72">
         <v>99</v>
       </c>
-      <c r="C103" s="73"/>
-      <c r="D103" s="73"/>
-      <c r="E103" s="73"/>
-      <c r="F103" s="73"/>
-      <c r="G103" s="73"/>
-      <c r="H103" s="73"/>
+      <c r="C103" s="74"/>
+      <c r="D103" s="74"/>
+      <c r="E103" s="74"/>
+      <c r="F103" s="74"/>
+      <c r="G103" s="74"/>
+      <c r="H103" s="74"/>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25">
       <c r="A104" s="1"/>
-      <c r="B104" s="71">
+      <c r="B104" s="72">
         <v>100</v>
       </c>
-      <c r="C104" s="73"/>
-      <c r="D104" s="73"/>
-      <c r="E104" s="73"/>
-      <c r="F104" s="73"/>
-      <c r="G104" s="73"/>
-      <c r="H104" s="73"/>
+      <c r="C104" s="74"/>
+      <c r="D104" s="74"/>
+      <c r="E104" s="74"/>
+      <c r="F104" s="74"/>
+      <c r="G104" s="74"/>
+      <c r="H104" s="74"/>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
